--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-immunization</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-immunization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T12:56:05+00:00</t>
+    <t>2023-12-08T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,6 +262,10 @@
     <t>Describes the event of a patient being administered a vaccine or a record of an immunization as reported by a patient, a clinician or another party.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -504,7 +508,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/valueset-immunization-status</t>
+    <t>A set of codes indicating the current status of an Immunization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -586,7 +593,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-patient)
 </t>
   </si>
   <si>
@@ -614,7 +621,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-encounter)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-encounter)
 </t>
   </si>
   <si>
@@ -754,7 +761,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-location)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-location)
 </t>
   </si>
   <si>
@@ -1005,7 +1012,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-practitioner)
 </t>
   </si>
   <si>
@@ -1490,10 +1497,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1682,7 +1689,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1697,7 +1704,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -1940,16 +1947,16 @@
         <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1958,15 +1965,15 @@
         <v>76</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1974,10 +1981,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1986,19 +1993,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2048,13 +2055,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -2078,15 +2085,15 @@
         <v>76</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2097,7 +2104,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -2106,16 +2113,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2166,19 +2173,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2201,10 +2208,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2215,28 +2222,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2286,19 +2293,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2321,10 +2328,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2335,7 +2342,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2347,16 +2354,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2382,13 +2389,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2406,19 +2413,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2441,21 +2448,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2467,16 +2474,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2526,19 +2533,19 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2547,7 +2554,7 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>76</v>
@@ -2561,14 +2568,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2587,16 +2594,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2646,7 +2653,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2667,7 +2674,7 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>76</v>
@@ -2681,14 +2688,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2707,16 +2714,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2766,7 +2773,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2778,7 +2785,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2787,7 +2794,7 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>76</v>
@@ -2801,14 +2808,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2821,25 +2828,25 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2888,7 +2895,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2900,7 +2907,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2909,7 +2916,7 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>76</v>
@@ -2923,10 +2930,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2949,13 +2956,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3006,7 +3013,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3018,22 +3025,22 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>76</v>
@@ -3041,10 +3048,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3052,31 +3059,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3102,11 +3109,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -3124,45 +3133,45 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3185,16 +3194,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3220,13 +3229,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3244,28 +3253,28 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
@@ -3279,10 +3288,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3290,10 +3299,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -3302,16 +3311,16 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3338,13 +3347,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3362,45 +3371,45 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3408,10 +3417,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3420,16 +3429,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3480,45 +3489,45 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3529,7 +3538,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3541,13 +3550,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3598,45 +3607,45 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3644,10 +3653,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3656,19 +3665,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3706,44 +3715,44 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>76</v>
@@ -3751,13 +3760,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>76</v>
@@ -3767,7 +3776,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3776,19 +3785,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3838,45 +3847,45 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3899,13 +3908,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3956,19 +3965,19 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
@@ -3977,10 +3986,10 @@
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>76</v>
@@ -3991,10 +4000,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4014,19 +4023,19 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4076,31 +4085,31 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>76</v>
@@ -4111,10 +4120,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4137,16 +4146,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4172,13 +4181,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4196,31 +4205,31 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
@@ -4231,10 +4240,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4245,7 +4254,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4257,13 +4266,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4314,45 +4323,45 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4363,7 +4372,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4375,13 +4384,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4432,45 +4441,45 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4481,7 +4490,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4493,13 +4502,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4550,45 +4559,45 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4599,7 +4608,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4611,13 +4620,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4668,28 +4677,28 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4698,15 +4707,15 @@
         <v>76</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4729,13 +4738,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4762,13 +4771,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4786,34 +4795,34 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>76</v>
@@ -4821,10 +4830,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4847,13 +4856,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4880,13 +4889,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4904,34 +4913,34 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>76</v>
@@ -4939,10 +4948,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4965,13 +4974,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5022,28 +5031,28 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5057,10 +5066,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5080,16 +5089,16 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5140,7 +5149,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5152,16 +5161,16 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5175,10 +5184,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5189,7 +5198,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5201,13 +5210,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5258,13 +5267,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -5279,7 +5288,7 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5293,14 +5302,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5319,16 +5328,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5378,7 +5387,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5390,7 +5399,7 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -5399,7 +5408,7 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5413,14 +5422,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5433,25 +5442,25 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5500,7 +5509,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5512,7 +5521,7 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
@@ -5521,7 +5530,7 @@
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5535,10 +5544,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5558,16 +5567,16 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5594,13 +5603,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5618,28 +5627,28 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5653,10 +5662,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5664,10 +5673,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5676,19 +5685,19 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5738,45 +5747,45 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5796,16 +5805,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5856,7 +5865,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5868,16 +5877,16 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5891,10 +5900,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5917,13 +5926,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5950,13 +5959,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5974,7 +5983,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5986,16 +5995,16 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6009,10 +6018,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6035,13 +6044,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6092,7 +6101,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6104,16 +6113,16 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6127,10 +6136,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6147,29 +6156,29 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>76</v>
@@ -6214,28 +6223,28 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6249,10 +6258,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6275,13 +6284,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6308,13 +6317,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6332,7 +6341,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6344,7 +6353,7 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6353,7 +6362,7 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6367,10 +6376,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6393,13 +6402,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6450,7 +6459,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6462,7 +6471,7 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6471,7 +6480,7 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6485,10 +6494,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6499,7 +6508,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6511,13 +6520,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6568,13 +6577,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6589,7 +6598,7 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6603,14 +6612,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6629,16 +6638,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6688,7 +6697,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6700,7 +6709,7 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6709,7 +6718,7 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6723,14 +6732,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6743,25 +6752,25 @@
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6810,7 +6819,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6822,7 +6831,7 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6831,7 +6840,7 @@
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6845,10 +6854,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6859,7 +6868,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6871,13 +6880,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6928,28 +6937,28 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6963,10 +6972,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6977,7 +6986,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6989,13 +6998,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7046,19 +7055,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -7067,7 +7076,7 @@
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7081,10 +7090,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7095,7 +7104,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -7107,13 +7116,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7164,28 +7173,28 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7199,10 +7208,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7213,7 +7222,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7225,13 +7234,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7282,28 +7291,28 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7317,10 +7326,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7343,13 +7352,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7376,13 +7385,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7400,7 +7409,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7412,16 +7421,16 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7435,10 +7444,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7461,13 +7470,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7494,13 +7503,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -7518,19 +7527,19 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7539,7 +7548,7 @@
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7553,10 +7562,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7579,16 +7588,16 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7638,7 +7647,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7650,16 +7659,16 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7673,10 +7682,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7687,7 +7696,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7699,13 +7708,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7756,13 +7765,13 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
@@ -7777,7 +7786,7 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7791,14 +7800,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7817,16 +7826,16 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7876,7 +7885,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7888,7 +7897,7 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7897,7 +7906,7 @@
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7911,14 +7920,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7931,25 +7940,25 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7998,7 +8007,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8010,7 +8019,7 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -8019,7 +8028,7 @@
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -8033,10 +8042,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8047,7 +8056,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8059,13 +8068,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8116,28 +8125,28 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8151,10 +8160,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8165,7 +8174,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8177,13 +8186,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8234,28 +8243,28 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8269,10 +8278,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8283,7 +8292,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8295,13 +8304,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8352,28 +8361,28 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8387,10 +8396,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8401,7 +8410,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8413,13 +8422,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8470,7 +8479,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8482,7 +8491,7 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -8491,7 +8500,7 @@
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8505,10 +8514,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8519,7 +8528,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8531,13 +8540,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8588,13 +8597,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8609,7 +8618,7 @@
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8623,14 +8632,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8649,16 +8658,16 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8708,7 +8717,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8720,7 +8729,7 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -8729,7 +8738,7 @@
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -8743,14 +8752,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8763,25 +8772,25 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8830,7 +8839,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8842,7 +8851,7 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8851,7 +8860,7 @@
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -8865,10 +8874,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8879,7 +8888,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8891,13 +8900,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8948,19 +8957,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8969,7 +8978,7 @@
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -8983,10 +8992,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8997,7 +9006,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -9009,13 +9018,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9066,19 +9075,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -9087,7 +9096,7 @@
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -9101,10 +9110,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9127,13 +9136,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9160,13 +9169,13 @@
         <v>76</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>76</v>
@@ -9184,7 +9193,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9196,7 +9205,7 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -9205,7 +9214,7 @@
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9219,10 +9228,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9230,10 +9239,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -9245,16 +9254,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9304,19 +9313,19 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -9325,7 +9334,7 @@
         <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9334,15 +9343,15 @@
         <v>76</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9365,16 +9374,16 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9424,19 +9433,19 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
@@ -9445,7 +9454,7 @@
         <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>

--- a/branches/main/StructureDefinition-omrs-immunization.xlsx
+++ b/branches/main/StructureDefinition-omrs-immunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
